--- a/storage/app/public/Download/template_karyawan_hosting.xlsx
+++ b/storage/app/public/Download/template_karyawan_hosting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ngampus yakkk\semester 7\sai\dummy_data\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\DataKaryawan\storage\app\public\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971347D4-12CF-41B2-A85E-1CD9464F1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F84207-E8D2-4D58-9753-B5A1EA604290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0B13E64C-F655-4EE1-8FF2-63179BBB7BC6}"/>
   </bookViews>
@@ -83,12 +83,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>nik</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>NB:</t>
+  </si>
+  <si>
+    <t>Jumlah maksimal data : 1000</t>
   </si>
 </sst>
 </file>
@@ -615,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE31775D-F4D9-4C29-9EDC-C6C969A5FF91}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -628,7 +634,7 @@
     <col min="4" max="4" width="47.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,63 +642,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
     </row>
